--- a/inst/extdata/toyFiles/ROC/roc1.xlsx
+++ b/inst/extdata/toyFiles/ROC/roc1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4ACD6B-2DB9-C640-8BA4-3CC2F2146EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA287F65-2DE0-4545-BF31-522A2C156073}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="7040" windowWidth="11680" windowHeight="15960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7980" yWindow="7040" windowWidth="11680" windowHeight="15960" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="19">
   <si>
     <t>CaseID</t>
   </si>
@@ -89,19 +89,7 @@
     <t>74</t>
   </si>
   <si>
-    <t>2.1</t>
-  </si>
-  <si>
     <t>3</t>
-  </si>
-  <si>
-    <t>1.91</t>
-  </si>
-  <si>
-    <t>0.52</t>
-  </si>
-  <si>
-    <t>0.91</t>
   </si>
 </sst>
 </file>
@@ -204,13 +192,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -600,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -614,7 +606,7 @@
     <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -631,7 +623,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -645,10 +637,14 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>5.28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.28</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -662,10 +658,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="3">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -679,10 +679,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="3">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.9800000000000004</v>
+      </c>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -696,10 +700,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -713,10 +721,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="3">
-        <v>4.26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.26</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -730,10 +742,14 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -747,10 +763,14 @@
         <v>1</v>
       </c>
       <c r="E8" s="3">
-        <v>3.31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.31</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -764,10 +784,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="3">
-        <v>4.92</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.92</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -781,10 +805,14 @@
         <v>1</v>
       </c>
       <c r="E10" s="3">
-        <v>4.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.95</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -798,10 +826,14 @@
         <v>1</v>
       </c>
       <c r="E11" s="3">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.3</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -815,10 +847,14 @@
         <v>1</v>
       </c>
       <c r="E12" s="3">
-        <v>4.66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.66</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
@@ -832,10 +868,14 @@
         <v>1</v>
       </c>
       <c r="E13" s="3">
-        <v>4.03</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.0300000000000002</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
@@ -849,10 +889,14 @@
         <v>1</v>
       </c>
       <c r="E14" s="3">
-        <v>5.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.22</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>8</v>
       </c>
@@ -866,10 +910,14 @@
         <v>1</v>
       </c>
       <c r="E15" s="3">
-        <v>4.9400000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.9400000000000004</v>
+      </c>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
@@ -883,10 +931,14 @@
         <v>1</v>
       </c>
       <c r="E16" s="3">
-        <v>5.27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>6</v>
       </c>
@@ -900,10 +952,14 @@
         <v>1</v>
       </c>
       <c r="E17" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>6</v>
       </c>
@@ -917,10 +973,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="3">
-        <v>3.27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.27</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -934,10 +994,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="3">
-        <v>4.6100000000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.6100000000000003</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>6</v>
       </c>
@@ -951,10 +1015,14 @@
         <v>1</v>
       </c>
       <c r="E20" s="3">
-        <v>5.18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.18</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>6</v>
       </c>
@@ -968,10 +1036,14 @@
         <v>1</v>
       </c>
       <c r="E21" s="3">
-        <v>4.72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.7199999999999998</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>7</v>
       </c>
@@ -985,10 +1057,14 @@
         <v>1</v>
       </c>
       <c r="E22" s="3">
-        <v>4.7699999999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.7699999999999996</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>7</v>
       </c>
@@ -1002,10 +1078,14 @@
         <v>1</v>
       </c>
       <c r="E23" s="3">
-        <v>3.19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.19</v>
+      </c>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>7</v>
       </c>
@@ -1019,10 +1099,14 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>5.2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.2</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
@@ -1036,10 +1120,14 @@
         <v>1</v>
       </c>
       <c r="E25" s="3">
-        <v>5.39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1053,10 +1141,14 @@
         <v>1</v>
       </c>
       <c r="E26" s="3">
-        <v>5.01</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4.01</v>
+      </c>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>8</v>
       </c>
@@ -1070,10 +1162,14 @@
         <v>1</v>
       </c>
       <c r="E27" s="3">
-        <v>4.87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+        <v>3.87</v>
+      </c>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>8</v>
       </c>
@@ -1087,10 +1183,14 @@
         <v>1</v>
       </c>
       <c r="E28" s="3">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+        <v>0.94</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1103,11 +1203,15 @@
       <c r="D29" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E29" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>8</v>
       </c>
@@ -1121,10 +1225,14 @@
         <v>7</v>
       </c>
       <c r="E30" s="3">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
@@ -1138,8 +1246,12 @@
         <v>7</v>
       </c>
       <c r="E31" s="3">
-        <v>3.99</v>
-      </c>
+        <v>2.99</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1159,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1171,7 +1283,7 @@
     <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1185,7 +1297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1196,10 +1308,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.02</v>
+      </c>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1210,10 +1323,11 @@
         <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.22</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1223,11 +1337,12 @@
       <c r="C4" s="1">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1">
+        <v>2.91</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -1238,10 +1353,11 @@
         <v>1</v>
       </c>
       <c r="D5" s="1">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.21</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1252,10 +1368,11 @@
         <v>2</v>
       </c>
       <c r="D6" s="1">
-        <v>2.21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.21</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1266,10 +1383,11 @@
         <v>3</v>
       </c>
       <c r="D7" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.07</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -1280,10 +1398,11 @@
         <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.14</v>
+      </c>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -1294,10 +1413,11 @@
         <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.98</v>
+      </c>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1308,10 +1428,11 @@
         <v>3</v>
       </c>
       <c r="D10" s="1">
-        <v>1.95</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.95</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1322,10 +1443,11 @@
         <v>1</v>
       </c>
       <c r="D11" s="1">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.89</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
@@ -1336,10 +1458,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>2.89</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.89</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1347,13 +1470,14 @@
         <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="1">
-        <v>0.84</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+        <v>1.8399999999999999</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1364,10 +1488,11 @@
         <v>1</v>
       </c>
       <c r="D14" s="1">
-        <v>3.22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.2200000000000006</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>7</v>
       </c>
@@ -1378,10 +1503,11 @@
         <v>2</v>
       </c>
       <c r="D15" s="1">
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+        <v>4.01</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>7</v>
       </c>
@@ -1392,10 +1518,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="1">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+        <v>2.96</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
@@ -1406,10 +1533,11 @@
         <v>1</v>
       </c>
       <c r="D17" s="1">
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+        <v>3.08</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,11 +1547,12 @@
       <c r="C18" s="1">
         <v>2</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D18" s="1">
+        <v>1.52</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
@@ -1433,9 +1562,10 @@
       <c r="C19" s="1">
         <v>3</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>22</v>
-      </c>
+      <c r="D19" s="1">
+        <v>1.9100000000000001</v>
+      </c>
+      <c r="F19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1455,7 +1585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
